--- a/Git_Test.xlsx
+++ b/Git_Test.xlsx
@@ -3373,7 +3373,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3384,7 +3384,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
